--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,247 +49,304 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>struggling</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>via</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>corona</t>
@@ -653,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,25 +803,25 @@
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9230769230769231</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,25 +853,25 @@
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8976377952755905</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8013698630136986</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,31 +897,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.896551724137931</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8899082568807339</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6451612903225806</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -940,31 +997,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.851063829787234</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5333333333333333</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,31 +1047,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,49 +1079,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5038910505836576</v>
+        <v>0.498062015503876</v>
       </c>
       <c r="C9">
+        <v>257</v>
+      </c>
+      <c r="D9">
+        <v>257</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>259</v>
-      </c>
-      <c r="D9">
-        <v>261</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0.99</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>255</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8141025641025641</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,49 +1129,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4339622641509434</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8080808080808081</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,49 +1179,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01273885350318471</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1705</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.800531914893617</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L11">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,49 +1229,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01240496198479392</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>639</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2468</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7719298245614035</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,25 +1279,25 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7709251101321586</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L13">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,25 +1305,25 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7528089887640449</v>
+        <v>0.81875</v>
       </c>
       <c r="L14">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="M14">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1331,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.723404255319149</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,25 +1357,25 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7112676056338029</v>
+        <v>0.7824267782426778</v>
       </c>
       <c r="L16">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="M16">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1326,25 +1383,25 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7111111111111111</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1352,25 +1409,25 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7107692307692308</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L18">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1378,25 +1435,25 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1404,25 +1461,25 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6705882352941176</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1430,25 +1487,25 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6290322580645161</v>
+        <v>0.7088235294117647</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1456,13 +1513,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5555555555555556</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1474,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1482,25 +1539,25 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5476190476190477</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1508,25 +1565,25 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5379746835443038</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1534,25 +1591,25 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5263157894736842</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1560,25 +1617,25 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5079365079365079</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1586,25 +1643,25 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.484375</v>
+        <v>0.609375</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1612,13 +1669,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4725274725274725</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1630,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1638,13 +1695,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4705882352941176</v>
+        <v>0.5567010309278351</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1656,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1664,25 +1721,25 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4704433497536946</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="L30">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>215</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1690,25 +1747,25 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4666666666666667</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L31">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1716,25 +1773,25 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4658385093167702</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L32">
+        <v>84</v>
+      </c>
+      <c r="M32">
+        <v>84</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>75</v>
-      </c>
-      <c r="M32">
-        <v>77</v>
-      </c>
-      <c r="N32">
-        <v>0.97</v>
-      </c>
-      <c r="O32">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1742,13 +1799,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4608695652173913</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1760,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1768,25 +1825,25 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4468085106382979</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1794,25 +1851,25 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4363636363636363</v>
+        <v>0.4930232558139535</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1820,25 +1877,25 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4140127388535032</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L36">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1846,25 +1903,25 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.382716049382716</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1872,25 +1929,25 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3623188405797101</v>
+        <v>0.4907975460122699</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1898,25 +1955,25 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3587628865979381</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L39">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>311</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1924,25 +1981,25 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.3410852713178295</v>
+        <v>0.485645933014354</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1950,13 +2007,13 @@
         <v>57</v>
       </c>
       <c r="K41">
-        <v>0.3347826086956522</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L41">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1968,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1976,25 +2033,25 @@
         <v>58</v>
       </c>
       <c r="K42">
-        <v>0.3260869565217391</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2002,25 +2059,25 @@
         <v>59</v>
       </c>
       <c r="K43">
-        <v>0.3097560975609756</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L43">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>283</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2028,13 +2085,13 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.3061224489795918</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2046,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2054,25 +2111,25 @@
         <v>61</v>
       </c>
       <c r="K45">
-        <v>0.3020361990950226</v>
+        <v>0.4198473282442748</v>
       </c>
       <c r="L45">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="M45">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>617</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2080,25 +2137,25 @@
         <v>62</v>
       </c>
       <c r="K46">
-        <v>0.296875</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N46">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2106,25 +2163,25 @@
         <v>63</v>
       </c>
       <c r="K47">
-        <v>0.2962962962962963</v>
+        <v>0.4156378600823045</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>95</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2132,25 +2189,25 @@
         <v>64</v>
       </c>
       <c r="K48">
-        <v>0.2957746478873239</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2158,25 +2215,25 @@
         <v>65</v>
       </c>
       <c r="K49">
-        <v>0.281524926686217</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="L49">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="N49">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>245</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2184,25 +2241,25 @@
         <v>66</v>
       </c>
       <c r="K50">
-        <v>0.2660550458715596</v>
+        <v>0.4</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2210,25 +2267,25 @@
         <v>67</v>
       </c>
       <c r="K51">
-        <v>0.265695067264574</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L51">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>655</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2236,25 +2293,25 @@
         <v>68</v>
       </c>
       <c r="K52">
-        <v>0.2631578947368421</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N52">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2262,25 +2319,25 @@
         <v>69</v>
       </c>
       <c r="K53">
-        <v>0.2538461538461538</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2288,25 +2345,25 @@
         <v>70</v>
       </c>
       <c r="K54">
-        <v>0.2534246575342466</v>
+        <v>0.3795620437956204</v>
       </c>
       <c r="L54">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2314,13 +2371,13 @@
         <v>71</v>
       </c>
       <c r="K55">
-        <v>0.25</v>
+        <v>0.3757575757575757</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2332,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2340,25 +2397,25 @@
         <v>72</v>
       </c>
       <c r="K56">
-        <v>0.2454545454545455</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2366,25 +2423,25 @@
         <v>73</v>
       </c>
       <c r="K57">
-        <v>0.2347417840375587</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="L57">
+        <v>29</v>
+      </c>
+      <c r="M57">
+        <v>29</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>50</v>
-      </c>
-      <c r="M57">
-        <v>52</v>
-      </c>
-      <c r="N57">
-        <v>0.96</v>
-      </c>
-      <c r="O57">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>163</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2392,25 +2449,25 @@
         <v>74</v>
       </c>
       <c r="K58">
-        <v>0.2170542635658915</v>
+        <v>0.3389261744966443</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>101</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2418,13 +2475,13 @@
         <v>75</v>
       </c>
       <c r="K59">
-        <v>0.2155172413793103</v>
+        <v>0.3341346153846154</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2436,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>91</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2444,13 +2501,13 @@
         <v>76</v>
       </c>
       <c r="K60">
-        <v>0.2079207920792079</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2462,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2470,25 +2527,25 @@
         <v>77</v>
       </c>
       <c r="K61">
-        <v>0.2068965517241379</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N61">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2496,25 +2553,25 @@
         <v>78</v>
       </c>
       <c r="K62">
-        <v>0.2</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="L62">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M62">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="N62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>256</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2522,13 +2579,13 @@
         <v>79</v>
       </c>
       <c r="K63">
-        <v>0.2</v>
+        <v>0.308695652173913</v>
       </c>
       <c r="L63">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2540,73 +2597,73 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.1976592977893368</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L64">
-        <v>608</v>
+        <v>31</v>
       </c>
       <c r="M64">
-        <v>639</v>
+        <v>31</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2468</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.1961338991041961</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L65">
-        <v>416</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1705</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.1818181818181818</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M66">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2618,47 +2675,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>117</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.1813186813186813</v>
+        <v>0.2896781354051055</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="M67">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>149</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.1693548387096774</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2670,21 +2727,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.168141592920354</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2696,99 +2753,99 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>94</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.1666666666666667</v>
+        <v>0.2813455657492355</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M70">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.16</v>
+        <v>0.2767857142857143</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.1433224755700326</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L72">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>263</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.1337209302325581</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2800,21 +2857,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.1045751633986928</v>
+        <v>0.2664756446991404</v>
       </c>
       <c r="L74">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2826,21 +2883,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.07231040564373897</v>
+        <v>0.2555519794013518</v>
       </c>
       <c r="L75">
-        <v>41</v>
+        <v>794</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>794</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2852,111 +2909,553 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>526</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.05549132947976879</v>
+        <v>0.2510499300046664</v>
       </c>
       <c r="L76">
-        <v>48</v>
+        <v>538</v>
       </c>
       <c r="M76">
-        <v>50</v>
+        <v>538</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>817</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.05401234567901234</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="L77">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>613</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.03628401626524867</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L78">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>3081</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.03106125970664366</v>
+        <v>0.2246153846153846</v>
       </c>
       <c r="L79">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="M79">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="N79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1123</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K80">
+        <v>0.2204724409448819</v>
+      </c>
+      <c r="L80">
+        <v>28</v>
+      </c>
+      <c r="M80">
+        <v>28</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K81">
+        <v>0.2201834862385321</v>
+      </c>
+      <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <v>24</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K82">
+        <v>0.2134831460674157</v>
+      </c>
+      <c r="L82">
+        <v>57</v>
+      </c>
+      <c r="M82">
+        <v>57</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83">
+        <v>0.2065217391304348</v>
+      </c>
+      <c r="L83">
+        <v>19</v>
+      </c>
+      <c r="M83">
+        <v>19</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K84">
+        <v>0.1983122362869198</v>
+      </c>
+      <c r="L84">
+        <v>47</v>
+      </c>
+      <c r="M84">
+        <v>47</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K85">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="L85">
+        <v>26</v>
+      </c>
+      <c r="M85">
+        <v>26</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K86">
+        <v>0.1858407079646018</v>
+      </c>
+      <c r="L86">
+        <v>21</v>
+      </c>
+      <c r="M86">
+        <v>21</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87">
+        <v>0.1854838709677419</v>
+      </c>
+      <c r="L87">
+        <v>23</v>
+      </c>
+      <c r="M87">
+        <v>23</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K88">
+        <v>0.1783783783783784</v>
+      </c>
+      <c r="L88">
+        <v>33</v>
+      </c>
+      <c r="M88">
+        <v>33</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K89">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="L89">
+        <v>21</v>
+      </c>
+      <c r="M89">
+        <v>21</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K90">
+        <v>0.1407151095732411</v>
+      </c>
+      <c r="L90">
+        <v>122</v>
+      </c>
+      <c r="M90">
+        <v>122</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K91">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="L91">
+        <v>22</v>
+      </c>
+      <c r="M91">
+        <v>22</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K92">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="L92">
+        <v>24</v>
+      </c>
+      <c r="M92">
+        <v>24</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93">
+        <v>0.08088235294117647</v>
+      </c>
+      <c r="L93">
+        <v>44</v>
+      </c>
+      <c r="M93">
+        <v>45</v>
+      </c>
+      <c r="N93">
+        <v>0.98</v>
+      </c>
+      <c r="O93">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K94">
+        <v>0.07516339869281045</v>
+      </c>
+      <c r="L94">
+        <v>23</v>
+      </c>
+      <c r="M94">
+        <v>23</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95">
+        <v>0.04935957513277101</v>
+      </c>
+      <c r="L95">
+        <v>158</v>
+      </c>
+      <c r="M95">
+        <v>158</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K96">
+        <v>0.04306632213608958</v>
+      </c>
+      <c r="L96">
+        <v>50</v>
+      </c>
+      <c r="M96">
+        <v>50</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
